--- a/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/1D/glob/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89368558-88FD-491C-97B4-28AE2F3F0DBC}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3754CADB-A8AF-488F-A5B5-7C427937B8D9}"/>
   <bookViews>
-    <workbookView xWindow="-26760" yWindow="-7875" windowWidth="22695" windowHeight="12870" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
+    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" activeTab="2" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
   <si>
     <t>02.growth</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>Three Epoch</t>
+  </si>
+  <si>
+    <t>UNCERTAINTY ESTIMATES</t>
+  </si>
+  <si>
+    <t>95% CONFIDENCE INTERVALS</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
   </si>
 </sst>
 </file>
@@ -326,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +363,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -719,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -789,6 +807,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
@@ -801,27 +840,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123D7EB-ECD6-4C25-BAEF-EFE90AE1E5C4}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,30 +1497,30 @@
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="61"/>
-      <c r="J3" s="60" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="61"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -1546,7 +1586,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
@@ -1563,7 +1603,7 @@
       <c r="H6" s="23">
         <v>10</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="59" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -1576,7 +1616,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1591,7 +1631,7 @@
       <c r="H7" s="29">
         <v>603301446</v>
       </c>
-      <c r="J7" s="54"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="36" t="s">
         <v>39</v>
       </c>
@@ -1602,7 +1642,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="59" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -1618,7 +1658,7 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="59" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="45" t="s">
@@ -1633,7 +1673,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="39" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1689,7 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="42" t="s">
         <v>41</v>
       </c>
@@ -1662,11 +1702,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="51"/>
+      <c r="J10" s="58"/>
       <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="51"/>
+      <c r="J11" s="58"/>
       <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1693,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B02B9-F3EB-4652-BD38-9CEDC80D3E86}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,45 +1749,64 @@
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
     <col min="10" max="10" width="6.88671875" customWidth="1"/>
     <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="61"/>
-      <c r="J3" s="60" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="61"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="57"/>
+      <c r="O3" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="S3" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>21</v>
@@ -1777,9 +1836,29 @@
       <c r="M4" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="67.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="O4" s="15"/>
+      <c r="P4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="67.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1800,7 +1879,7 @@
       <c r="H5" s="23">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="63" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="26" t="s">
@@ -1811,9 +1890,33 @@
         <f>D5/(4*H5*H6*H9)</f>
         <v>38933.688014186569</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+      <c r="O5" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>1.9810499999999998E-3</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="V5" s="69">
+        <f>(D5-2*Q5)/(4*H5*H6*H9)</f>
+        <v>38933.685379826558</v>
+      </c>
+      <c r="W5" s="70">
+        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
+        <v>38933.690648546581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
@@ -1832,7 +1935,7 @@
       <c r="H6" s="23">
         <v>10</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="59" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -1843,9 +1946,33 @@
         <f>D6*M5</f>
         <v>924558.28927288845</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
+      <c r="O6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>3.8511800000000001E-3</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="30"/>
+      <c r="V6" s="71">
+        <f>(D6-2*Q6)*M5</f>
+        <v>924258.40799167554</v>
+      </c>
+      <c r="W6" s="31">
+        <f>(D6+2*Q6)*M5</f>
+        <v>924858.17055410135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1862,7 +1989,7 @@
       <c r="H7" s="29">
         <v>603301446</v>
       </c>
-      <c r="J7" s="54"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="36" t="s">
         <v>39</v>
       </c>
@@ -1871,9 +1998,29 @@
         <f>D7*M5</f>
         <v>2565.7300401348948</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="O7" s="61"/>
+      <c r="P7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>5.3430800000000001E-3</v>
+      </c>
+      <c r="S7" s="61"/>
+      <c r="T7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="37"/>
+      <c r="V7" s="72">
+        <f>(D7-2*Q7)*M5</f>
+        <v>2149.678420625215</v>
+      </c>
+      <c r="W7" s="38">
+        <f>(D7+2*Q7)*M5</f>
+        <v>2981.781659644575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="59" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -1891,7 +2038,7 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="59" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="45" t="s">
@@ -1904,9 +2051,35 @@
         <f>2*D8*M5*H6</f>
         <v>4059304.1797351204</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
+      <c r="O8" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>2.1389400000000002E-3</v>
+      </c>
+      <c r="S8" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="71">
+        <f>2*(D8-2*Q8)*M5*H6</f>
+        <v>4055973.1068294775</v>
+      </c>
+      <c r="W8" s="31">
+        <f>2*(D8+2*Q8)*M5*H6</f>
+        <v>4062635.2526407624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60"/>
       <c r="B9" s="39" t="s">
         <v>41</v>
       </c>
@@ -1924,7 +2097,7 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="42" t="s">
         <v>41</v>
       </c>
@@ -1935,23 +2108,51 @@
         <f>2*D9*M5*H6</f>
         <v>15651.342581703</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="51"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="41">
+        <v>5.0642899999999999E-3</v>
+      </c>
+      <c r="S9" s="60"/>
+      <c r="T9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="73">
+        <f>2*(D9-2*Q9)*M5*H6</f>
+        <v>7764.4831067684045</v>
+      </c>
+      <c r="W9" s="43">
+        <f>2*(D9+2*Q9)*M5*H6</f>
+        <v>23538.202056637598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="58"/>
       <c r="M10" s="46"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="51"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J11" s="58"/>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="J14" s="44"/>
       <c r="M14" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>

--- a/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/1D/glob/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3754CADB-A8AF-488F-A5B5-7C427937B8D9}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1436B172-7767-4E29-B7E4-2E1755B46F68}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" activeTab="2" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
     <sheet name="calc templ" sheetId="2" r:id="rId2"/>
-    <sheet name="05.three_epoch" sheetId="4" r:id="rId3"/>
+    <sheet name="Model 5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>02.growth</t>
   </si>
@@ -77,18 +74,6 @@
   </si>
   <si>
     <t>TF</t>
-  </si>
-  <si>
-    <t>Run 1, Rep 96</t>
-  </si>
-  <si>
-    <t>Run 3, Rep 58</t>
-  </si>
-  <si>
-    <t>Run 2, Rep 9</t>
-  </si>
-  <si>
-    <t>Run 2, Rep 24</t>
   </si>
   <si>
     <t>MODEL:</t>
@@ -278,19 +263,19 @@
     </r>
   </si>
   <si>
-    <t>Three Epoch</t>
-  </si>
-  <si>
-    <t>UNCERTAINTY ESTIMATES</t>
-  </si>
-  <si>
-    <t>95% CONFIDENCE INTERVALS</t>
-  </si>
-  <si>
-    <t>Lower Bound</t>
-  </si>
-  <si>
-    <t>Upper Bound</t>
+    <t>Run 3, Rep 2</t>
+  </si>
+  <si>
+    <t>Run 3, Rep 39</t>
+  </si>
+  <si>
+    <t>Run 5, Rep 41</t>
+  </si>
+  <si>
+    <t>Run 3, Rep 76</t>
+  </si>
+  <si>
+    <t>05 - Three Epoch</t>
   </si>
 </sst>
 </file>
@@ -338,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,12 +348,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -737,12 +716,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -750,9 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,6 +772,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,28 +819,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,28 +1162,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123D7EB-ECD6-4C25-BAEF-EFE90AE1E5C4}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="48" t="s">
@@ -1240,223 +1200,223 @@
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
       <c r="K1" s="50"/>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12">
-        <v>-4231.53</v>
+      <c r="B2" s="43">
+        <v>-7149.34</v>
       </c>
       <c r="C2">
-        <v>-4231.53</v>
-      </c>
-      <c r="D2">
-        <v>-4231.53</v>
+        <v>-7149.4</v>
+      </c>
+      <c r="D2" s="45">
+        <v>-7149.17</v>
       </c>
       <c r="E2">
-        <v>-4231.54</v>
-      </c>
-      <c r="F2" s="3">
-        <v>-4231.6899999999996</v>
-      </c>
-      <c r="G2" s="13">
-        <v>8467.06</v>
+        <v>-7149.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-7149.27</v>
+      </c>
+      <c r="G2">
+        <v>14302.68</v>
       </c>
       <c r="H2">
-        <v>8467.06</v>
-      </c>
-      <c r="I2">
-        <v>8467.06</v>
+        <v>14302.8</v>
+      </c>
+      <c r="I2" s="45">
+        <v>14302.34</v>
       </c>
       <c r="J2">
-        <v>8467.08</v>
+        <v>14302.6</v>
       </c>
       <c r="K2">
-        <v>8467.3799999999992</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>13</v>
+        <v>14302.54</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="M2">
-        <v>276113.90000000002</v>
+        <v>446606.5</v>
       </c>
       <c r="N2">
-        <v>2.24E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="P2">
         <v>0.01</v>
       </c>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>-5033.24</v>
+      <c r="B3" s="43">
+        <v>-8461.84</v>
       </c>
       <c r="C3">
-        <v>-5033.37</v>
-      </c>
-      <c r="D3" s="13">
-        <v>-5033.25</v>
+        <v>-8462.15</v>
+      </c>
+      <c r="D3" s="45">
+        <v>-8461.73</v>
       </c>
       <c r="E3">
-        <v>-5033.33</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-5033.3900000000003</v>
+        <v>-8462.02</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-8461.8799999999992</v>
       </c>
       <c r="G3">
-        <v>10070.48</v>
+        <v>16927.68</v>
       </c>
       <c r="H3">
-        <v>10070.74</v>
-      </c>
-      <c r="I3" s="13">
-        <v>10070.5</v>
+        <v>16928.3</v>
+      </c>
+      <c r="I3" s="45">
+        <v>16927.46</v>
       </c>
       <c r="J3">
-        <v>10070.66</v>
+        <v>16928.04</v>
       </c>
       <c r="K3">
-        <v>10070.780000000001</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>14</v>
+        <v>16927.759999999998</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="M3">
-        <v>277132.59999999998</v>
+        <v>448141.5</v>
       </c>
       <c r="N3">
-        <v>7.5200000000000003E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="P3">
         <v>0.01</v>
       </c>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>-4233.51</v>
-      </c>
-      <c r="C4" s="13">
-        <v>-4217.42</v>
+      <c r="B4" s="43">
+        <v>-7141.42</v>
+      </c>
+      <c r="C4">
+        <v>-7125.57</v>
       </c>
       <c r="D4">
-        <v>-4266.2</v>
+        <v>-7146.57</v>
       </c>
       <c r="E4">
-        <v>-4218.2700000000004</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-4218.79</v>
+        <v>-7126.47</v>
+      </c>
+      <c r="F4" s="46">
+        <v>-7125.38</v>
       </c>
       <c r="G4">
-        <v>8473.02</v>
-      </c>
-      <c r="H4" s="13">
-        <v>8440.84</v>
+        <v>14288.84</v>
+      </c>
+      <c r="H4">
+        <v>14257.14</v>
       </c>
       <c r="I4">
-        <v>8538.4</v>
+        <v>14299.14</v>
       </c>
       <c r="J4">
-        <v>8442.5400000000009</v>
-      </c>
-      <c r="K4">
-        <v>8443.58</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>15</v>
+        <v>14258.94</v>
+      </c>
+      <c r="K4" s="45">
+        <v>14256.76</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="M4">
-        <v>276155.3</v>
+        <v>446276.7</v>
       </c>
       <c r="N4">
-        <v>0.8337</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="O4">
-        <v>2.3E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="P4">
         <v>0.01</v>
       </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>-1423.38</v>
-      </c>
-      <c r="C5" s="14">
-        <v>-1022.09</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-1523.65</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-1259.8</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-1212.3599999999999</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2854.76</v>
-      </c>
-      <c r="H5" s="14">
-        <v>2052.1799999999998</v>
-      </c>
-      <c r="I5" s="5">
-        <v>3055.3</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2527.6</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2432.7199999999998</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="5">
-        <v>58556.6</v>
-      </c>
-      <c r="N5" s="5">
-        <v>23.747</v>
-      </c>
-      <c r="O5" s="5">
-        <v>6.59E-2</v>
-      </c>
-      <c r="P5" s="5">
-        <v>5.2130999999999998</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>2.01E-2</v>
+      <c r="B5" s="44">
+        <v>-1931.06</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1878.13</v>
+      </c>
+      <c r="D5" s="47">
+        <v>-1526.77</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-2126.33</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-1558.99</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3870.12</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3764.26</v>
+      </c>
+      <c r="I5" s="47">
+        <v>3061.54</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4260.66</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3125.98</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="3">
+        <v>94640.24</v>
+      </c>
+      <c r="N5" s="3">
+        <v>23.9132</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>5.1996000000000002</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1.4E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1473,247 +1433,247 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="54"/>
       <c r="D3" s="55"/>
       <c r="F3" s="56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="57"/>
       <c r="J3" s="56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
       <c r="M3" s="57"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="67.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D5" s="18"/>
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="67.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="H5" s="18">
+        <v>4.9300000000000001E-9</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="F5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="23">
-        <v>4.9300000000000001E-9</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="L5" s="22"/>
+      <c r="M5" s="23">
         <f>D5/(4*H5*H6*H9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="29"/>
-      <c r="F6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="23">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="24"/>
+      <c r="F6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="18">
+        <v>50</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31">
+        <v>24</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26">
         <f>D6*M5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="61"/>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="23"/>
-      <c r="F7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="18"/>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="24">
         <v>603301446</v>
       </c>
       <c r="J7" s="61"/>
-      <c r="K7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38">
+      <c r="K7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33">
         <f>D7*M5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="29"/>
-      <c r="F8" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="29">
-        <f>(8732510/600502230)*(1066040/1226278)</f>
-        <v>1.2641803364126243E-2</v>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24"/>
+      <c r="F8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="24">
+        <f>(15859769/599899923)*(1736464/(1839839+106915))</f>
+        <v>2.3581572371007518E-2</v>
       </c>
       <c r="J8" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="31">
+      <c r="L8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="26">
         <f>2*D8*M5*H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="60"/>
-      <c r="B9" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="F9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="B9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="F9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="30">
+        <f>H7*H8</f>
+        <v>14226796.710382484</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="35">
-        <f>H7*H8</f>
-        <v>7626818.2496250272</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="43">
+      <c r="M9" s="38">
         <f>2*D9*M5*H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J10" s="58"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J11" s="58"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="M14" s="46"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="M14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1732,427 +1692,266 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B02B9-F3EB-4652-BD38-9CEDC80D3E86}">
-  <dimension ref="A1:W14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4643C3D0-D7CF-42AE-9F1D-C96CF1EF8258}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="54"/>
       <c r="D3" s="55"/>
       <c r="F3" s="56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="57"/>
       <c r="J3" s="56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
       <c r="M3" s="57"/>
-      <c r="O3" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="S3" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="66"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="67.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D5" s="18">
+        <v>94640.24</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="67.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="H5" s="18">
+        <v>9.859999999999999E-10</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23">
+        <f>D5/(4*H5*H6*H9)</f>
+        <v>33733.530527336829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="23">
-        <v>58556.6</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="24">
+        <v>23.9132</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="23">
-        <v>4.9300000000000001E-9</v>
-      </c>
-      <c r="J5" s="63" t="s">
+      <c r="H6" s="18">
+        <v>50</v>
+      </c>
+      <c r="J6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K6" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26">
+        <f>D6*M5</f>
+        <v>806676.66220631101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="61"/>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="18">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
-        <f>D5/(4*H5*H6*H9)</f>
-        <v>38933.688014186569</v>
-      </c>
-      <c r="O5" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>1.9810499999999998E-3</v>
-      </c>
-      <c r="S5" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="26" t="s">
+      <c r="H7" s="24">
+        <v>603301446</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33">
+        <f>D7*M5</f>
+        <v>1558.4891103629614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24">
+        <v>5.1996000000000002</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="24">
+        <f>(15859769/599899923)*(1736464/(1839839+106915))</f>
+        <v>2.3581572371007518E-2</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="26">
+        <f>2*D8*M5*H6</f>
+        <v>17540086.532994058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="60"/>
+      <c r="B9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="69">
-        <f>(D5-2*Q5)/(4*H5*H6*H9)</f>
-        <v>38933.685379826558</v>
-      </c>
-      <c r="W5" s="70">
-        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
-        <v>38933.690648546581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="29">
-        <v>23.747</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="23">
-        <v>10</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31">
-        <f>D6*M5</f>
-        <v>924558.28927288845</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>3.8511800000000001E-3</v>
-      </c>
-      <c r="S6" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="71">
-        <f>(D6-2*Q6)*M5</f>
-        <v>924258.40799167554</v>
-      </c>
-      <c r="W6" s="31">
-        <f>(D6+2*Q6)*M5</f>
-        <v>924858.17055410135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="23">
-        <v>6.59E-2</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H9" s="30">
+        <f>H7*H8</f>
+        <v>14226796.710382484</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="29">
-        <v>603301446</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38">
-        <f>D7*M5</f>
-        <v>2565.7300401348948</v>
-      </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>5.3430800000000001E-3</v>
-      </c>
-      <c r="S7" s="61"/>
-      <c r="T7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="72">
-        <f>(D7-2*Q7)*M5</f>
-        <v>2149.678420625215</v>
-      </c>
-      <c r="W7" s="38">
-        <f>(D7+2*Q7)*M5</f>
-        <v>2981.781659644575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="29">
-        <v>5.2130999999999998</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="29">
-        <f>(8732510/600502230)*(1066040/1226278)</f>
-        <v>1.2641803364126243E-2</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="31">
-        <f>2*D8*M5*H6</f>
-        <v>4059304.1797351204</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="29">
-        <v>2.1389400000000002E-3</v>
-      </c>
-      <c r="S8" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="71">
-        <f>2*(D8-2*Q8)*M5*H6</f>
-        <v>4055973.1068294775</v>
-      </c>
-      <c r="W8" s="31">
-        <f>2*(D8+2*Q8)*M5*H6</f>
-        <v>4062635.2526407624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60"/>
-      <c r="B9" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41">
-        <v>2.01E-2</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="35">
-        <f>H7*H8</f>
-        <v>7626818.2496250272</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="43">
+      <c r="M9" s="38">
         <f>2*D9*M5*H6</f>
-        <v>15651.342581703</v>
-      </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="41">
-        <v>5.0642899999999999E-3</v>
-      </c>
-      <c r="S9" s="60"/>
-      <c r="T9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="73">
-        <f>2*(D9-2*Q9)*M5*H6</f>
-        <v>7764.4831067684045</v>
-      </c>
-      <c r="W9" s="43">
-        <f>2*(D9+2*Q9)*M5*H6</f>
-        <v>23538.202056637598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47226.942738271558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J10" s="58"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J11" s="58"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="M14" s="46"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="M14" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S3:W3"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>

--- a/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/1D/glob/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1436B172-7767-4E29-B7E4-2E1755B46F68}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2681290-FDDB-4CB2-9CF9-AB49A8B7A76C}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>02.growth</t>
   </si>
@@ -276,6 +276,50 @@
   </si>
   <si>
     <t>05 - Three Epoch</t>
+  </si>
+  <si>
+    <t>UNCERTAINTY ESTIMATES</t>
+  </si>
+  <si>
+    <t>95% CONFIDENCE INTERVALS</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -323,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +392,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -712,11 +780,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -774,9 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,6 +1003,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123D7EB-ECD6-4C25-BAEF-EFE90AE1E5C4}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1186,20 +1422,20 @@
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1465,7 @@
       <c r="C2">
         <v>-7149.4</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="62">
         <v>-7149.17</v>
       </c>
       <c r="E2">
@@ -1244,7 +1480,7 @@
       <c r="H2">
         <v>14302.8</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="62">
         <v>14302.34</v>
       </c>
       <c r="J2">
@@ -1277,7 +1513,7 @@
       <c r="C3">
         <v>-8462.15</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="63">
         <v>-8461.73</v>
       </c>
       <c r="E3">
@@ -1292,7 +1528,7 @@
       <c r="H3">
         <v>16928.3</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="63">
         <v>16927.46</v>
       </c>
       <c r="J3">
@@ -1331,7 +1567,7 @@
       <c r="E4">
         <v>-7126.47</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="61">
         <v>-7125.38</v>
       </c>
       <c r="G4">
@@ -1346,7 +1582,7 @@
       <c r="J4">
         <v>14258.94</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="98">
         <v>14256.76</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1376,7 +1612,7 @@
       <c r="C5" s="3">
         <v>-1878.13</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="60">
         <v>-1526.77</v>
       </c>
       <c r="E5" s="3">
@@ -1391,7 +1627,7 @@
       <c r="H5" s="3">
         <v>3764.26</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="60">
         <v>3061.54</v>
       </c>
       <c r="J5" s="3">
@@ -1430,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE7548-1ED1-43B1-8D49-BE726A669DE7}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1451,38 +1687,56 @@
     <col min="11" max="11" width="13.08984375" customWidth="1"/>
     <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.7265625" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="F3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="54"/>
+      <c r="O3" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="S3" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="54"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>17</v>
@@ -1512,8 +1766,28 @@
       <c r="M4" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="67.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O4" s="70"/>
+      <c r="P4" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="67.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
@@ -1544,9 +1818,31 @@
         <f>D5/(4*H5*H6*H9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
+      <c r="O5" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="94"/>
+      <c r="V5" s="95">
+        <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="96">
+        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1563,7 +1859,7 @@
       <c r="H6" s="18">
         <v>50</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="56" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="40" t="s">
@@ -1574,9 +1870,31 @@
         <f>D6*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="61"/>
+      <c r="O6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="73"/>
+      <c r="S6" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="76"/>
+      <c r="V6" s="82">
+        <f>(D6-2*Q6)*M5</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="83">
+        <f>(D6+2*Q6)*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="58"/>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1591,7 +1909,7 @@
       <c r="H7" s="24">
         <v>603301446</v>
       </c>
-      <c r="J7" s="61"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="31" t="s">
         <v>35</v>
       </c>
@@ -1600,9 +1918,27 @@
         <f>D7*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="59" t="s">
+      <c r="O7" s="58"/>
+      <c r="P7" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="74"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="78">
+        <f>(D7-2*Q7)*M5</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="33">
+        <f>(D7+2*Q7)*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
@@ -1618,7 +1954,7 @@
         <f>(15859769/599899923)*(1736464/(1839839+106915))</f>
         <v>2.3581572371007518E-2</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="40" t="s">
@@ -1631,9 +1967,33 @@
         <f>2*D8*M5*H6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="60"/>
+      <c r="O8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="S8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="84">
+        <f>2*(D8-2*Q8)*M5*H6</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="26">
+        <f>2*(D8+2*Q8)*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="57"/>
       <c r="B9" s="34" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +2009,7 @@
         <f>H7*H8</f>
         <v>14226796.710382484</v>
       </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="37" t="s">
         <v>37</v>
       </c>
@@ -1660,23 +2020,49 @@
         <f>2*D9*M5*H6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="58"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="87">
+        <f>2*(D9-2*Q9)*M5*H6</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="38">
+        <f>2*(D9+2*Q9)*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="55"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J11" s="58"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
       <c r="M11" s="41"/>
     </row>
-    <row r="12" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="39"/>
       <c r="J14" s="39"/>
       <c r="M14" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -1693,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4643C3D0-D7CF-42AE-9F1D-C96CF1EF8258}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1714,40 +2100,58 @@
     <col min="11" max="11" width="13.08984375" customWidth="1"/>
     <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.26953125" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.36328125" customWidth="1"/>
+    <col min="18" max="18" width="4.36328125" customWidth="1"/>
+    <col min="20" max="20" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="F3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="54"/>
+      <c r="O3" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="S3" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="54"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>17</v>
@@ -1777,8 +2181,28 @@
       <c r="M4" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="67.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O4" s="70"/>
+      <c r="P4" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="67.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
@@ -1811,9 +2235,33 @@
         <f>D5/(4*H5*H6*H9)</f>
         <v>33733.530527336829</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
+      <c r="O5" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0.25916605999999998</v>
+      </c>
+      <c r="S5" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="94"/>
+      <c r="V5" s="95">
+        <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
+        <v>33733.345773236528</v>
+      </c>
+      <c r="W5" s="96">
+        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
+        <v>33733.715281437129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1832,7 +2280,7 @@
       <c r="H6" s="18">
         <v>50</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="56" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="40" t="s">
@@ -1843,9 +2291,33 @@
         <f>D6*M5</f>
         <v>806676.66220631101</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="61"/>
+      <c r="O6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="73">
+        <v>0.25692367999999999</v>
+      </c>
+      <c r="S6" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="76"/>
+      <c r="V6" s="82">
+        <f>(D6-2*Q6)*M5</f>
+        <v>789342.7766013596</v>
+      </c>
+      <c r="W6" s="83">
+        <f>(D6+2*Q6)*M5</f>
+        <v>824010.54781126243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="58"/>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1862,7 +2334,7 @@
       <c r="H7" s="24">
         <v>603301446</v>
       </c>
-      <c r="J7" s="61"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="31" t="s">
         <v>35</v>
       </c>
@@ -1871,9 +2343,29 @@
         <f>D7*M5</f>
         <v>1558.4891103629614</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="59" t="s">
+      <c r="O7" s="58"/>
+      <c r="P7" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="74">
+        <v>0.54711865000000004</v>
+      </c>
+      <c r="S7" s="79"/>
+      <c r="T7" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="78">
+        <f>(D7-2*Q7)*M5</f>
+        <v>-35353.998253337668</v>
+      </c>
+      <c r="W7" s="33">
+        <f>(D7+2*Q7)*M5</f>
+        <v>38470.976474063595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
@@ -1891,7 +2383,7 @@
         <f>(15859769/599899923)*(1736464/(1839839+106915))</f>
         <v>2.3581572371007518E-2</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="40" t="s">
@@ -1904,9 +2396,35 @@
         <f>2*D8*M5*H6</f>
         <v>17540086.532994058</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="60"/>
+      <c r="O8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0.24968858999999999</v>
+      </c>
+      <c r="S8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="84">
+        <f>2*(D8-2*Q8)*M5*H6</f>
+        <v>15855510.998375522</v>
+      </c>
+      <c r="W8" s="26">
+        <f>2*(D8+2*Q8)*M5*H6</f>
+        <v>19224662.067612596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="57"/>
       <c r="B9" s="34" t="s">
         <v>37</v>
       </c>
@@ -1924,7 +2442,7 @@
         <f>H7*H8</f>
         <v>14226796.710382484</v>
       </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="37" t="s">
         <v>37</v>
       </c>
@@ -1935,23 +2453,61 @@
         <f>2*D9*M5*H6</f>
         <v>47226.942738271558</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="58"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>0.60469156999999996</v>
+      </c>
+      <c r="S9" s="57"/>
+      <c r="T9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="87">
+        <f>2*(D9-2*Q9)*M5*H6</f>
+        <v>-4032449.3645053748</v>
+      </c>
+      <c r="W9" s="38">
+        <f>2*(D9+2*Q9)*M5*H6</f>
+        <v>4126903.2499819179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="55"/>
       <c r="M10" s="41"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J11" s="58"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
       <c r="M11" s="41"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S11" s="85"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="39"/>
       <c r="J14" s="39"/>
       <c r="M14" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>

--- a/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/1D/glob/models/dadi_glob1D_results_summary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/1D/glob/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2681290-FDDB-4CB2-9CF9-AB49A8B7A76C}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="8_{21408352-E5DB-40D9-AE77-F269512CD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB39092-5B3F-4A74-A7DA-EFEC36ECAA4D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{2A3D79EE-876F-4CC7-84D9-EA1A1596E616}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
     <sheet name="calc templ" sheetId="2" r:id="rId2"/>
     <sheet name="Model 5" sheetId="3" r:id="rId3"/>
+    <sheet name="Model 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="49">
   <si>
     <t>02.growth</t>
   </si>
@@ -900,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -958,6 +959,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,64 +1033,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,10 +1060,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1398,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123D7EB-ECD6-4C25-BAEF-EFE90AE1E5C4}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,20 +1405,20 @@
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1448,7 @@
       <c r="C2">
         <v>-7149.4</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="47">
         <v>-7149.17</v>
       </c>
       <c r="E2">
@@ -1480,7 +1463,7 @@
       <c r="H2">
         <v>14302.8</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="47">
         <v>14302.34</v>
       </c>
       <c r="J2">
@@ -1513,7 +1496,7 @@
       <c r="C3">
         <v>-8462.15</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="48">
         <v>-8461.73</v>
       </c>
       <c r="E3">
@@ -1528,7 +1511,7 @@
       <c r="H3">
         <v>16928.3</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="48">
         <v>16927.46</v>
       </c>
       <c r="J3">
@@ -1567,7 +1550,7 @@
       <c r="E4">
         <v>-7126.47</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="46">
         <v>-7125.38</v>
       </c>
       <c r="G4">
@@ -1582,7 +1565,7 @@
       <c r="J4">
         <v>14258.94</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="70">
         <v>14256.76</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1612,7 +1595,7 @@
       <c r="C5" s="3">
         <v>-1878.13</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="45">
         <v>-1526.77</v>
       </c>
       <c r="E5" s="3">
@@ -1627,7 +1610,7 @@
       <c r="H5" s="3">
         <v>3764.26</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="45">
         <v>3061.54</v>
       </c>
       <c r="J5" s="3">
@@ -1669,7 +1652,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:W9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1699,42 +1682,42 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="F3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="54"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="54"/>
-      <c r="O3" s="64" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="80"/>
+      <c r="O3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="S3" s="53" t="s">
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="S3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="54"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="80"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
@@ -1766,24 +1749,24 @@
       <c r="M4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71" t="s">
+      <c r="O4" s="52"/>
+      <c r="P4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="54" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="27"/>
-      <c r="T4" s="90" t="s">
+      <c r="T4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="64" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1818,31 +1801,31 @@
         <f>D5/(4*H5*H6*H9)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="49" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Q5" s="18"/>
-      <c r="S5" s="97" t="s">
+      <c r="S5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="93" t="s">
+      <c r="T5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="94"/>
-      <c r="V5" s="95">
+      <c r="U5" s="66"/>
+      <c r="V5" s="67">
         <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="96">
+      <c r="W5" s="68">
         <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1859,7 +1842,7 @@
       <c r="H6" s="18">
         <v>50</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="82" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="40" t="s">
@@ -1870,31 +1853,31 @@
         <f>D6*M5</f>
         <v>0</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="73"/>
-      <c r="S6" s="81" t="s">
+      <c r="Q6" s="24"/>
+      <c r="S6" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="75" t="s">
+      <c r="T6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="82">
+      <c r="U6" s="56"/>
+      <c r="V6" s="59">
         <f>(D6-2*Q6)*M5</f>
         <v>0</v>
       </c>
-      <c r="W6" s="83">
+      <c r="W6" s="60">
         <f>(D6+2*Q6)*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1909,7 +1892,7 @@
       <c r="H7" s="24">
         <v>603301446</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="31" t="s">
         <v>35</v>
       </c>
@@ -1918,17 +1901,17 @@
         <f>D7*M5</f>
         <v>0</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="67" t="s">
+      <c r="O7" s="84"/>
+      <c r="P7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="74"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="77" t="s">
+      <c r="Q7" s="18"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="57" t="s">
         <v>35</v>
       </c>
       <c r="U7" s="32"/>
-      <c r="V7" s="78">
+      <c r="V7" s="58">
         <f>(D7-2*Q7)*M5</f>
         <v>0</v>
       </c>
@@ -1938,7 +1921,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
@@ -1954,7 +1937,7 @@
         <f>(15859769/599899923)*(1736464/(1839839+106915))</f>
         <v>2.3581572371007518E-2</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="40" t="s">
@@ -1967,23 +1950,23 @@
         <f>2*D8*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="68" t="s">
+      <c r="P8" s="50" t="s">
         <v>36</v>
       </c>
       <c r="Q8" s="24"/>
-      <c r="S8" s="56" t="s">
+      <c r="S8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="89" t="s">
+      <c r="T8" s="40" t="s">
         <v>47</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="84">
+      <c r="V8" s="61">
         <f>2*(D8-2*Q8)*M5*H6</f>
         <v>0</v>
       </c>
@@ -1993,7 +1976,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="57"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="34" t="s">
         <v>37</v>
       </c>
@@ -2009,7 +1992,7 @@
         <f>H7*H8</f>
         <v>14226796.710382484</v>
       </c>
-      <c r="J9" s="57"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="37" t="s">
         <v>37</v>
       </c>
@@ -2020,19 +2003,19 @@
         <f>2*D9*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="69" t="s">
+      <c r="O9" s="83"/>
+      <c r="P9" s="51" t="s">
         <v>37</v>
       </c>
       <c r="Q9" s="36"/>
-      <c r="S9" s="57"/>
+      <c r="S9" s="83"/>
       <c r="T9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="U9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="87">
+      <c r="V9" s="62">
         <f>2*(D9-2*Q9)*M5*H6</f>
         <v>0</v>
       </c>
@@ -2042,11 +2025,11 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="55"/>
+      <c r="J10" s="81"/>
       <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="J11" s="55"/>
+      <c r="J11" s="81"/>
       <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:23" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2081,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4643C3D0-D7CF-42AE-9F1D-C96CF1EF8258}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:W9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2112,44 +2095,44 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="F3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="54"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="54"/>
-      <c r="O3" s="64" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="80"/>
+      <c r="O3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="S3" s="53" t="s">
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="S3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="54"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="80"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
@@ -2181,24 +2164,24 @@
       <c r="M4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71" t="s">
+      <c r="O4" s="52"/>
+      <c r="P4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="54" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="27"/>
-      <c r="T4" s="90" t="s">
+      <c r="T4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="64" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2235,7 +2218,7 @@
         <f>D5/(4*H5*H6*H9)</f>
         <v>33733.530527336829</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="49" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -2244,24 +2227,24 @@
       <c r="Q5" s="18">
         <v>0.25916605999999998</v>
       </c>
-      <c r="S5" s="97" t="s">
+      <c r="S5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="93" t="s">
+      <c r="T5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="94"/>
-      <c r="V5" s="95">
+      <c r="U5" s="66"/>
+      <c r="V5" s="67">
         <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
         <v>33733.345773236528</v>
       </c>
-      <c r="W5" s="96">
+      <c r="W5" s="68">
         <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
         <v>33733.715281437129</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -2280,7 +2263,7 @@
       <c r="H6" s="18">
         <v>50</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="82" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="40" t="s">
@@ -2291,33 +2274,33 @@
         <f>D6*M5</f>
         <v>806676.66220631101</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="73">
+      <c r="Q6" s="24">
         <v>0.25692367999999999</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="75" t="s">
+      <c r="T6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="82">
+      <c r="U6" s="56"/>
+      <c r="V6" s="59">
         <f>(D6-2*Q6)*M5</f>
         <v>789342.7766013596</v>
       </c>
-      <c r="W6" s="83">
+      <c r="W6" s="60">
         <f>(D6+2*Q6)*M5</f>
         <v>824010.54781126243</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
@@ -2334,7 +2317,7 @@
       <c r="H7" s="24">
         <v>603301446</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="31" t="s">
         <v>35</v>
       </c>
@@ -2343,19 +2326,19 @@
         <f>D7*M5</f>
         <v>1558.4891103629614</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="67" t="s">
+      <c r="O7" s="84"/>
+      <c r="P7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="74">
+      <c r="Q7" s="18">
         <v>0.54711865000000004</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="77" t="s">
+      <c r="S7" s="87"/>
+      <c r="T7" s="57" t="s">
         <v>35</v>
       </c>
       <c r="U7" s="32"/>
-      <c r="V7" s="78">
+      <c r="V7" s="58">
         <f>(D7-2*Q7)*M5</f>
         <v>-35353.998253337668</v>
       </c>
@@ -2365,7 +2348,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
@@ -2383,7 +2366,7 @@
         <f>(15859769/599899923)*(1736464/(1839839+106915))</f>
         <v>2.3581572371007518E-2</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="40" t="s">
@@ -2396,25 +2379,25 @@
         <f>2*D8*M5*H6</f>
         <v>17540086.532994058</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="68" t="s">
+      <c r="P8" s="50" t="s">
         <v>36</v>
       </c>
       <c r="Q8" s="24">
         <v>0.24968858999999999</v>
       </c>
-      <c r="S8" s="56" t="s">
+      <c r="S8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="89" t="s">
+      <c r="T8" s="40" t="s">
         <v>47</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="84">
+      <c r="V8" s="61">
         <f>2*(D8-2*Q8)*M5*H6</f>
         <v>15855510.998375522</v>
       </c>
@@ -2424,7 +2407,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="57"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="34" t="s">
         <v>37</v>
       </c>
@@ -2442,7 +2425,7 @@
         <f>H7*H8</f>
         <v>14226796.710382484</v>
       </c>
-      <c r="J9" s="57"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="37" t="s">
         <v>37</v>
       </c>
@@ -2453,21 +2436,21 @@
         <f>2*D9*M5*H6</f>
         <v>47226.942738271558</v>
       </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="69" t="s">
+      <c r="O9" s="83"/>
+      <c r="P9" s="51" t="s">
         <v>37</v>
       </c>
       <c r="Q9" s="36">
         <v>0.60469156999999996</v>
       </c>
-      <c r="S9" s="57"/>
+      <c r="S9" s="83"/>
       <c r="T9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="U9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="87">
+      <c r="V9" s="62">
         <f>2*(D9-2*Q9)*M5*H6</f>
         <v>-4032449.3645053748</v>
       </c>
@@ -2477,22 +2460,18 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="55"/>
+      <c r="J10" s="81"/>
       <c r="M10" s="41"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
+      <c r="S10" s="39"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="J11" s="55"/>
+      <c r="J11" s="81"/>
       <c r="M11" s="41"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
+      <c r="S11" s="39"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
     </row>
     <row r="12" spans="1:23" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -2519,5 +2498,427 @@
     <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079A18E3-DF99-4B56-8A9C-0B32577674D3}">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.7265625" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="F3" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="80"/>
+      <c r="O3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="S3" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="80"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="67.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="18">
+        <v>446276.7</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="18">
+        <v>9.859999999999999E-10</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23">
+        <f>D5/(4*H5*H6*H9)</f>
+        <v>159070.69427432917</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67">
+        <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
+        <v>159070.69427432917</v>
+      </c>
+      <c r="W5" s="68">
+        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
+        <v>159070.69427432917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="24">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="18">
+        <v>50</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26">
+        <f>D6*M5</f>
+        <v>135862.27997970453</v>
+      </c>
+      <c r="O6" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="S6" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="56"/>
+      <c r="V6" s="59">
+        <f>(D6-2*Q6)*M5</f>
+        <v>135862.27997970453</v>
+      </c>
+      <c r="W6" s="60">
+        <f>(D6+2*Q6)*M5</f>
+        <v>135862.27997970453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="84"/>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="18">
+        <v>2.35E-2</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="24">
+        <v>603301446</v>
+      </c>
+      <c r="J7" s="84"/>
+      <c r="K7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33">
+        <f>D7*M5</f>
+        <v>3738.1613154467354</v>
+      </c>
+      <c r="O7" s="84"/>
+      <c r="P7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="58">
+        <f>(D7-2*Q7)*M5</f>
+        <v>3738.1613154467354</v>
+      </c>
+      <c r="W7" s="33">
+        <f>(D7+2*Q7)*M5</f>
+        <v>3738.1613154467354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="24">
+        <f>(15859769/599899923)*(1736464/(1839839+106915))</f>
+        <v>2.3581572371007518E-2</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="26">
+        <f>2*D8*M5*H6</f>
+        <v>159070.69427432917</v>
+      </c>
+      <c r="O8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="S8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="61">
+        <f>2*(D8-2*Q8)*M5*H6</f>
+        <v>159070.69427432917</v>
+      </c>
+      <c r="W8" s="26">
+        <f>2*(D8+2*Q8)*M5*H6</f>
+        <v>159070.69427432917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="83"/>
+      <c r="B9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="F9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="30">
+        <f>H7*H8</f>
+        <v>14226796.710382484</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="38">
+        <f>2*D9*M5*H6</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="83"/>
+      <c r="P9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="62">
+        <f>2*(D9-2*Q9)*M5*H6</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="38">
+        <f>2*(D9+2*Q9)*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="81"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="J11" s="81"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="M14" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S8:S9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>